--- a/LOGS/d1caeb8e-dbd5-4dab-b335-0a085cbc78d0/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/d1caeb8e-dbd5-4dab-b335-0a085cbc78d0/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -7,10 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="11_0_30362064-ced1-3" sheetId="1" r:id="rId1"/>
-    <sheet name="11_0_09b6eaa0-7783-3" sheetId="2" r:id="rId2"/>
-    <sheet name="22_0_30362064-ced1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="22_0_09b6eaa0-7783-3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,40 +348,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>